--- a/data/trans_orig/P19C11_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Dificultad-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por implantes en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C11_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9085</v>
+        <v>9656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25398</v>
+        <v>26015</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03606379538138418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02008757260868013</v>
+        <v>0.02134933344001896</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05615454106964601</v>
+        <v>0.0575200421480227</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>19642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14073</v>
+        <v>13699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28515</v>
+        <v>27776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03333674157238452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0238846991166194</v>
+        <v>0.02324986041929088</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0483959049003892</v>
+        <v>0.0471425135159016</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -783,19 +783,19 @@
         <v>35953</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25029</v>
+        <v>26872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46968</v>
+        <v>48440</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0345210229893049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02403215772464586</v>
+        <v>0.02580176533987723</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04509760531101844</v>
+        <v>0.0465106916486954</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>435973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426886</v>
+        <v>426269</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>443199</v>
+        <v>442628</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9639362046186157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.943845458930354</v>
+        <v>0.9424799578519772</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.97991242739132</v>
+        <v>0.9786506665599811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>787</v>
@@ -833,19 +833,19 @@
         <v>569551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560678</v>
+        <v>561417</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>575120</v>
+        <v>575494</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9666632584276157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9516040950996104</v>
+        <v>0.9528574864840984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9761153008833805</v>
+        <v>0.9767501395807089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1183</v>
@@ -854,19 +854,19 @@
         <v>1005524</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>994509</v>
+        <v>993037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1016448</v>
+        <v>1014605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9654789770106951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9549023946889817</v>
+        <v>0.9534893083513047</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9759678422753545</v>
+        <v>0.9741982346601228</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>26220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17588</v>
+        <v>17667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37397</v>
+        <v>37081</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02846409965720399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01909308954250404</v>
+        <v>0.01917879341183082</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04059784855001281</v>
+        <v>0.0402546960202354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -979,19 +979,19 @@
         <v>27734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20348</v>
+        <v>20263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37864</v>
+        <v>37398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02551092052152768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01871747082210609</v>
+        <v>0.01863929348794127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03482908862162112</v>
+        <v>0.03440107814053023</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -1000,19 +1000,19 @@
         <v>53954</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42237</v>
+        <v>42449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67576</v>
+        <v>67561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02686548874989572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02103121105462991</v>
+        <v>0.02113700903402253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03364830763426665</v>
+        <v>0.03364095037997999</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>894948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>883771</v>
+        <v>884087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903580</v>
+        <v>903501</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9715359003427959</v>
+        <v>0.971535900342796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.959402151449987</v>
+        <v>0.9597453039797644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9809069104574959</v>
+        <v>0.9808212065881691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1524</v>
@@ -1050,19 +1050,19 @@
         <v>1059394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1049264</v>
+        <v>1049730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1066780</v>
+        <v>1066865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9744890794784723</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9651709113783787</v>
+        <v>0.9655989218594698</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.981282529177894</v>
+        <v>0.9813607065120589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2373</v>
@@ -1071,19 +1071,19 @@
         <v>1954342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1940720</v>
+        <v>1940735</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1966059</v>
+        <v>1965847</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9731345112501042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9663516923657344</v>
+        <v>0.9663590496200198</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9789687889453702</v>
+        <v>0.9788629909659774</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>42902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31600</v>
+        <v>31443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57597</v>
+        <v>57967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04185884499630604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03083144440015677</v>
+        <v>0.03067841726207819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05619633881488824</v>
+        <v>0.05655810485267156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -1196,19 +1196,19 @@
         <v>47443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37748</v>
+        <v>38064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59274</v>
+        <v>59592</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04605667256546586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03664487560904359</v>
+        <v>0.03695147161674605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05754136302372353</v>
+        <v>0.05785092942986783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -1217,19 +1217,19 @@
         <v>90345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74821</v>
+        <v>75961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107376</v>
+        <v>108308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04396305445417277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03640869374250881</v>
+        <v>0.03696349211424065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05225045897515639</v>
+        <v>0.05270405624919446</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>982016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>967321</v>
+        <v>966951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>993318</v>
+        <v>993475</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.958141155003694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9438036611851118</v>
+        <v>0.9434418951473283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9691685555998433</v>
+        <v>0.9693215827379217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1414</v>
@@ -1267,19 +1267,19 @@
         <v>982660</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>970829</v>
+        <v>970511</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>992355</v>
+        <v>992039</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.953943327434534</v>
+        <v>0.9539433274345342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9424586369762763</v>
+        <v>0.9421490705701321</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9633551243909564</v>
+        <v>0.9630485283832541</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2373</v>
@@ -1288,19 +1288,19 @@
         <v>1964677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1947646</v>
+        <v>1946714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1980201</v>
+        <v>1979061</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.956036945545827</v>
+        <v>0.9560369455458273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9477495410248437</v>
+        <v>0.9472959437508055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.963591306257491</v>
+        <v>0.9630365078857592</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>68304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53775</v>
+        <v>54062</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86060</v>
+        <v>86682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0718993391583993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05660587595844002</v>
+        <v>0.05690767044868492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09058999676269494</v>
+        <v>0.09124474543987612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -1413,19 +1413,19 @@
         <v>56114</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45922</v>
+        <v>46004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68382</v>
+        <v>68881</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06371171463278243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05214001493937752</v>
+        <v>0.05223325917265192</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07764100355164176</v>
+        <v>0.0782074047993981</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -1434,19 +1434,19 @@
         <v>124418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>107526</v>
+        <v>105173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144937</v>
+        <v>145602</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06796038320445137</v>
+        <v>0.06796038320445139</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05873357184454291</v>
+        <v>0.05744842403045428</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07916856756385572</v>
+        <v>0.07953174226131632</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>881694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>863938</v>
+        <v>863316</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>896223</v>
+        <v>895936</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9281006608416009</v>
+        <v>0.9281006608416007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9094100032373051</v>
+        <v>0.908755254560124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9433941240415601</v>
+        <v>0.9430923295513152</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1185</v>
@@ -1484,19 +1484,19 @@
         <v>824632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>812364</v>
+        <v>811865</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>834824</v>
+        <v>834742</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9362882853672176</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9223589964483582</v>
+        <v>0.921792595200602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9478599850606224</v>
+        <v>0.9477667408273479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2031</v>
@@ -1505,19 +1505,19 @@
         <v>1706326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1685807</v>
+        <v>1685142</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1723218</v>
+        <v>1725571</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9320396167955486</v>
+        <v>0.9320396167955487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9208314324361444</v>
+        <v>0.9204682577386836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9412664281554571</v>
+        <v>0.9425515759695456</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>153737</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130746</v>
+        <v>131129</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180707</v>
+        <v>178933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04591413049154715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03904759495476</v>
+        <v>0.03916218672151678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05396853867859576</v>
+        <v>0.05343891577041141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>250</v>
@@ -1630,19 +1630,19 @@
         <v>150932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>132356</v>
+        <v>134090</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173862</v>
+        <v>172691</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04207561127036636</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03689698912088614</v>
+        <v>0.03738030759498334</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04846785883624437</v>
+        <v>0.04814119985962229</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>420</v>
@@ -1651,19 +1651,19 @@
         <v>304670</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>277441</v>
+        <v>273374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336080</v>
+        <v>336137</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04392878725356098</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04000287198026953</v>
+        <v>0.03941633446931433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04845767735595611</v>
+        <v>0.04846587335065865</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3194631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3167661</v>
+        <v>3169435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3217622</v>
+        <v>3217239</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.954085869508453</v>
+        <v>0.9540858695084528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9460314613214043</v>
+        <v>0.9465610842295887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.96095240504524</v>
+        <v>0.9608378132784832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4910</v>
@@ -1701,19 +1701,19 @@
         <v>3436239</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3413309</v>
+        <v>3414480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3454815</v>
+        <v>3453081</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9579243887296336</v>
+        <v>0.9579243887296335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9515321411637556</v>
+        <v>0.9518588001403776</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9631030108791139</v>
+        <v>0.9626196924050167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7960</v>
@@ -1722,19 +1722,19 @@
         <v>6630869</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6599459</v>
+        <v>6599402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6658098</v>
+        <v>6662165</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9560712127464388</v>
+        <v>0.956071212746439</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9515423226440438</v>
+        <v>0.9515341266493414</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9599971280197304</v>
+        <v>0.9605836655306859</v>
       </c>
     </row>
     <row r="18">
